--- a/data/trans_dic/P36$fruta-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P36$fruta-Edad-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.05981477807136015</v>
+        <v>0.05770813355390043</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1412217514492967</v>
+        <v>0.1414502659478035</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1605489901375911</v>
+        <v>0.1584211500743185</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1247937070246328</v>
+        <v>0.1242424508476297</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1134354415796797</v>
+        <v>0.1100586861053933</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1140017134868816</v>
+        <v>0.1143639029891496</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.09796099360921978</v>
+        <v>0.09950988167006453</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1362479252788819</v>
+        <v>0.1355408822381666</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1468317201088928</v>
+        <v>0.1487104826898814</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1081396214299099</v>
+        <v>0.1090602906810882</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2133266239177241</v>
+        <v>0.2140503367303008</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2412011556581905</v>
+        <v>0.2384775752476931</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1865263266222474</v>
+        <v>0.1895031864895792</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1771188154928252</v>
+        <v>0.1803234104564765</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1807470045649496</v>
+        <v>0.185473635932584</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1382923246747459</v>
+        <v>0.1389685109728284</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1820171411003046</v>
+        <v>0.1843485526112001</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2020812200606653</v>
+        <v>0.2001166182214972</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.0950725936624707</v>
+        <v>0.09331268553281899</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1182188637541482</v>
+        <v>0.1178506131868478</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1430373001061783</v>
+        <v>0.1450887888779191</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.09395763343285979</v>
+        <v>0.09231288932977577</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.122983340063423</v>
+        <v>0.1252011327307705</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1315338391315851</v>
+        <v>0.1325773544951366</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1011483471656955</v>
+        <v>0.1016144759120914</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1296433628418777</v>
+        <v>0.1270818296416897</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1473323641324643</v>
+        <v>0.1458667546270143</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1428566346783675</v>
+        <v>0.1437566310828288</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.174739140864369</v>
+        <v>0.1747323756224779</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2081244023031439</v>
+        <v>0.2074800568347412</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1465041163834114</v>
+        <v>0.1496290451322845</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1848147732239849</v>
+        <v>0.188623016161069</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1925511806486147</v>
+        <v>0.1934519007684591</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1361789556339856</v>
+        <v>0.1353271837112945</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1698430445934555</v>
+        <v>0.1691912617943312</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1899755060952916</v>
+        <v>0.1912164381029749</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.0568328119246064</v>
+        <v>0.05537737538338255</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.08669423371944637</v>
+        <v>0.08665213931794077</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0735881943086114</v>
+        <v>0.07448399407763824</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.08284992028989185</v>
+        <v>0.08288786131277673</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.08708259975814372</v>
+        <v>0.08275945999949189</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1281942192413731</v>
+        <v>0.1272528252761224</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.07629949947744971</v>
+        <v>0.07549885224634509</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.09155831500881302</v>
+        <v>0.09120849402430209</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1069261710546952</v>
+        <v>0.1068988609202926</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1026493122434454</v>
+        <v>0.101201726363055</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1330569628658897</v>
+        <v>0.1329993012365482</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.118970431199457</v>
+        <v>0.1188990327646072</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1312424636403419</v>
+        <v>0.131228265903538</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1329578325957194</v>
+        <v>0.1325501120292589</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1844058558505567</v>
+        <v>0.1838682222718891</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1116630608165969</v>
+        <v>0.1093699073539938</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1257728313142635</v>
+        <v>0.1232085815517654</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1432722547881198</v>
+        <v>0.1423863289842955</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03822638715619023</v>
+        <v>0.03920965155500025</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.06541784452172313</v>
+        <v>0.06714893728570252</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.08809709297359386</v>
+        <v>0.08640256080370089</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.06944876545811907</v>
+        <v>0.06956333416259519</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.07390001679088634</v>
+        <v>0.07477450939740253</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1018670322441901</v>
+        <v>0.09906188125248576</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.05888049730153681</v>
+        <v>0.06045305271361217</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.0778881445144711</v>
+        <v>0.07511137389067528</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.09974904879670564</v>
+        <v>0.1003404715718349</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0823269979492597</v>
+        <v>0.08082991427073388</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1172474247029699</v>
+        <v>0.116941989787946</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1420605975602307</v>
+        <v>0.1413560967120778</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1222295369366363</v>
+        <v>0.1213218646997283</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1260070745089281</v>
+        <v>0.1286066057624879</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1532478925247102</v>
+        <v>0.1526764891179555</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.09282271409257567</v>
+        <v>0.09339867735381259</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1139529628864579</v>
+        <v>0.1132406620598972</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1367130891370029</v>
+        <v>0.1368924769162119</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.03858240794862632</v>
+        <v>0.03839085064083287</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.07903946827799092</v>
+        <v>0.08128774291205801</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1078298592809462</v>
+        <v>0.1062047387364832</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.06612933639199763</v>
+        <v>0.06530414151980654</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1000185227612035</v>
+        <v>0.09819368864535817</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.08959360083356738</v>
+        <v>0.09188799616345313</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.05695823340058708</v>
+        <v>0.05775397475011636</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.09867082049618048</v>
+        <v>0.09731149106304715</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1077425532902642</v>
+        <v>0.1043830245379478</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.08747835453868329</v>
+        <v>0.08690554741338634</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1511922858648784</v>
+        <v>0.149449311862498</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1746510599325127</v>
+        <v>0.175561023917103</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1223415846940837</v>
+        <v>0.1207855743701576</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1669862211583976</v>
+        <v>0.1678187430896298</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1513384231464751</v>
+        <v>0.152517910848122</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.09504390697044235</v>
+        <v>0.09362961220073353</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1452966386446756</v>
+        <v>0.1448034656555038</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1510710175349001</v>
+        <v>0.152544072894218</v>
       </c>
     </row>
     <row r="19">
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.04934919393918725</v>
+        <v>0.0505775519961084</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.06740116737525172</v>
+        <v>0.06731137563734822</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.06026340812020315</v>
+        <v>0.05899118124401436</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.07823469775146104</v>
+        <v>0.07903559793636557</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.09835258219829363</v>
+        <v>0.09825117315059036</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.09864408291024393</v>
+        <v>0.1039288910060369</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.07366731702877066</v>
+        <v>0.0742494120307121</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.09189234740400205</v>
+        <v>0.09470831787231992</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.08819460694693045</v>
+        <v>0.08699587482851441</v>
       </c>
     </row>
     <row r="21">
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1155031787370278</v>
+        <v>0.1130826945818192</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1412673673273709</v>
+        <v>0.1447205717275409</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1199208359526282</v>
+        <v>0.1242067174391271</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1428665928829268</v>
+        <v>0.144189337105073</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1773863634193037</v>
+        <v>0.1736062452556983</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1715465356958273</v>
+        <v>0.1728434881063209</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1197255671921013</v>
+        <v>0.1208740681902668</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.14658543436838</v>
+        <v>0.1454361966983514</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1357548145415163</v>
+        <v>0.1341947830680265</v>
       </c>
     </row>
     <row r="22">
@@ -1329,31 +1329,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.04217883222052799</v>
+        <v>0.04133689613941795</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.06731825296055101</v>
+        <v>0.07094791101909062</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.07428038510995624</v>
+        <v>0.07333683442082221</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.03714173526648846</v>
+        <v>0.03815697691470951</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.09420789339474056</v>
+        <v>0.09730571040700496</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.04913254368488427</v>
+        <v>0.04864350003818751</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.04477960066105513</v>
+        <v>0.04569712628313593</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.09619566833112439</v>
+        <v>0.09707271730091277</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.06663075480552122</v>
+        <v>0.06705671699566199</v>
       </c>
     </row>
     <row r="24">
@@ -1364,31 +1364,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1184280173522612</v>
+        <v>0.1153747607464679</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1597042143329225</v>
+        <v>0.1587778596339731</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.14754638038149</v>
+        <v>0.1480506754697312</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.09479150112804186</v>
+        <v>0.09671491607946925</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1632357356712854</v>
+        <v>0.1675323024935245</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1146148009247468</v>
+        <v>0.1123348449822335</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.08942388005775664</v>
+        <v>0.09090891558161185</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1549817408609585</v>
+        <v>0.1519446741670056</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1146673940084679</v>
+        <v>0.1150056052285658</v>
       </c>
     </row>
     <row r="25">
@@ -1438,31 +1438,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.07145092058494967</v>
+        <v>0.07177480802654362</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1094068521056802</v>
+        <v>0.1080398513758748</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1185263092814241</v>
+        <v>0.1187000819599688</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.0956539817037276</v>
+        <v>0.09502296210320423</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.1145804133039304</v>
+        <v>0.1138862003627599</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.1217813895565747</v>
+        <v>0.121547263908016</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.08650196272691862</v>
+        <v>0.08698712821836836</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1154288641136289</v>
+        <v>0.1150992488572606</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.1245082466286633</v>
+        <v>0.1236173260227487</v>
       </c>
     </row>
     <row r="27">
@@ -1473,31 +1473,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.09102700855034014</v>
+        <v>0.09133421457372747</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1327571014362802</v>
+        <v>0.1318619456810869</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1409615001552084</v>
+        <v>0.1421746227573321</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.117148927162351</v>
+        <v>0.1173653266526122</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.1372820599740808</v>
+        <v>0.1376475222886472</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.14368836438545</v>
+        <v>0.1448676133478753</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.1005334747727446</v>
+        <v>0.101472852058929</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.1323077655867411</v>
+        <v>0.1309867823851373</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.1407880288969757</v>
+        <v>0.1395164610491213</v>
       </c>
     </row>
     <row r="28">
@@ -1729,31 +1729,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>29499</v>
+        <v>28460</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>64135</v>
+        <v>64239</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>67344</v>
+        <v>66452</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>58340</v>
+        <v>58082</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>48577</v>
+        <v>47131</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>45009</v>
+        <v>45152</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>94107</v>
+        <v>95595</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>120223</v>
+        <v>119599</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>119561</v>
+        <v>121091</v>
       </c>
     </row>
     <row r="7">
@@ -1764,31 +1764,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>53331</v>
+        <v>53785</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>96881</v>
+        <v>97210</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>101175</v>
+        <v>100033</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>87199</v>
+        <v>88591</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>75849</v>
+        <v>77221</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>71361</v>
+        <v>73227</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>132851</v>
+        <v>133501</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>160609</v>
+        <v>162666</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>164549</v>
+        <v>162949</v>
       </c>
     </row>
     <row r="8">
@@ -1873,31 +1873,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>69925</v>
+        <v>68630</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>81116</v>
+        <v>80863</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>84463</v>
+        <v>85674</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>58575</v>
+        <v>57550</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>74909</v>
+        <v>76259</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>74125</v>
+        <v>74713</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>137452</v>
+        <v>138085</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>167920</v>
+        <v>164602</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>170027</v>
+        <v>168336</v>
       </c>
     </row>
     <row r="11">
@@ -1908,31 +1908,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>105069</v>
+        <v>105731</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>119897</v>
+        <v>119893</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>122897</v>
+        <v>122516</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>91334</v>
+        <v>93282</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>112570</v>
+        <v>114889</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>108511</v>
+        <v>109019</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>185055</v>
+        <v>183897</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>219988</v>
+        <v>219144</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>219239</v>
+        <v>220671</v>
       </c>
     </row>
     <row r="12">
@@ -2017,31 +2017,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>36076</v>
+        <v>35152</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>58867</v>
+        <v>58839</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>49238</v>
+        <v>49837</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>57145</v>
+        <v>57171</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>61734</v>
+        <v>58669</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>84786</v>
+        <v>84163</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>101060</v>
+        <v>99999</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>127077</v>
+        <v>126591</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>142263</v>
+        <v>142227</v>
       </c>
     </row>
     <row r="15">
@@ -2052,31 +2052,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>65159</v>
+        <v>64240</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>90349</v>
+        <v>90309</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>79603</v>
+        <v>79555</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>90524</v>
+        <v>90514</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>94256</v>
+        <v>93966</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>121963</v>
+        <v>121608</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>147899</v>
+        <v>144862</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>174565</v>
+        <v>171006</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>190621</v>
+        <v>189443</v>
       </c>
     </row>
     <row r="16">
@@ -2161,31 +2161,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>19771</v>
+        <v>20280</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>40139</v>
+        <v>41201</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>56722</v>
+        <v>55631</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>35675</v>
+        <v>35734</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>45537</v>
+        <v>46076</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>66006</v>
+        <v>64189</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>60700</v>
+        <v>62321</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>95785</v>
+        <v>92370</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>128859</v>
+        <v>129623</v>
       </c>
     </row>
     <row r="19">
@@ -2196,31 +2196,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>42581</v>
+        <v>41807</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>71940</v>
+        <v>71753</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>91467</v>
+        <v>91014</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>62788</v>
+        <v>62322</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>77645</v>
+        <v>79247</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>99299</v>
+        <v>98929</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>95691</v>
+        <v>96285</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>140137</v>
+        <v>139261</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>176610</v>
+        <v>176841</v>
       </c>
     </row>
     <row r="20">
@@ -2305,31 +2305,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>14920</v>
+        <v>14846</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>33942</v>
+        <v>34907</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>51534</v>
+        <v>50757</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>26715</v>
+        <v>26382</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>44685</v>
+        <v>43870</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>44514</v>
+        <v>45654</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>45037</v>
+        <v>45666</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>86455</v>
+        <v>85264</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>105024</v>
+        <v>101749</v>
       </c>
     </row>
     <row r="23">
@@ -2340,31 +2340,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>33829</v>
+        <v>33607</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>64926</v>
+        <v>64178</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>83469</v>
+        <v>83904</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>49424</v>
+        <v>48796</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>74604</v>
+        <v>74976</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>75192</v>
+        <v>75778</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>75151</v>
+        <v>74033</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>127308</v>
+        <v>126876</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>147259</v>
+        <v>148695</v>
       </c>
     </row>
     <row r="24">
@@ -2449,31 +2449,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>14439</v>
+        <v>14798</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>20880</v>
+        <v>20852</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>20148</v>
+        <v>19723</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>26829</v>
+        <v>27104</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>34816</v>
+        <v>34781</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>37264</v>
+        <v>39260</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>46817</v>
+        <v>47187</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>60996</v>
+        <v>62866</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>62803</v>
+        <v>61949</v>
       </c>
     </row>
     <row r="27">
@@ -2484,31 +2484,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>33794</v>
+        <v>33086</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>43763</v>
+        <v>44832</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>40093</v>
+        <v>41526</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>48994</v>
+        <v>49447</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>62794</v>
+        <v>61456</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>64804</v>
+        <v>65294</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>76088</v>
+        <v>76818</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>97301</v>
+        <v>96538</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>96670</v>
+        <v>95559</v>
       </c>
     </row>
     <row r="28">
@@ -2593,31 +2593,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>8853</v>
+        <v>8676</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>16747</v>
+        <v>17649</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>18957</v>
+        <v>18717</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>12402</v>
+        <v>12741</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>36645</v>
+        <v>37850</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>19603</v>
+        <v>19408</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>24351</v>
+        <v>24850</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>61348</v>
+        <v>61908</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>43589</v>
+        <v>43868</v>
       </c>
     </row>
     <row r="31">
@@ -2628,31 +2628,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>24856</v>
+        <v>24215</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>39729</v>
+        <v>39499</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>37656</v>
+        <v>37784</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>31652</v>
+        <v>32294</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>63495</v>
+        <v>65167</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>45728</v>
+        <v>44819</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>48628</v>
+        <v>49435</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>98839</v>
+        <v>96902</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>75014</v>
+        <v>75235</v>
       </c>
     </row>
     <row r="32">
@@ -2737,31 +2737,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>233631</v>
+        <v>234690</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>374267</v>
+        <v>369591</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>401849</v>
+        <v>402438</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>322849</v>
+        <v>320719</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>407011</v>
+        <v>404545</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>431263</v>
+        <v>430434</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>574805</v>
+        <v>578029</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>804893</v>
+        <v>802594</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>863050</v>
+        <v>856875</v>
       </c>
     </row>
     <row r="35">
@@ -2772,31 +2772,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>297642</v>
+        <v>298646</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>454146</v>
+        <v>451083</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>477913</v>
+        <v>482026</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>395398</v>
+        <v>396128</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>487651</v>
+        <v>488949</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>508842</v>
+        <v>513018</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>668044</v>
+        <v>674286</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>922590</v>
+        <v>913379</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>975896</v>
+        <v>967082</v>
       </c>
     </row>
     <row r="36">
